--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708896.9492764747</v>
+        <v>-712462.4511500238</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12540439.94833161</v>
+        <v>12536900.07198909</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>111.5762445578675</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>14.7847434522801</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968133</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>49.32032046794051</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>101.5718275432009</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>56.74603282013097</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>45.6788982109436</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>231.4706471897569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>146.3844574608913</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104615326</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>114.789077753388</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>27.53886311894309</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>226.9256066641072</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>107.4229406534603</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>93.60868142557136</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>171.1886243209711</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>275.9321225713862</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993879</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>40.78297506860809</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681703</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>29.15829740541245</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>179.9681453153607</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>14.8944177180884</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442489</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338907</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.685168714561</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901692</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>123.0418249531383</v>
+        <v>93.16084888546074</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838907</v>
+        <v>24.17382596574971</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828919</v>
+        <v>52.06849973564984</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431751</v>
+        <v>70.57601873167816</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459992</v>
+        <v>55.72314698196057</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643965</v>
+        <v>41.29686219380029</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931876</v>
+        <v>41.2233042466794</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908603</v>
+        <v>42.97275566644667</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147816</v>
+        <v>53.79159358883881</v>
       </c>
       <c r="H34" t="n">
-        <v>47.5873082280502</v>
+        <v>41.14384575541085</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922213</v>
+        <v>18.98356133658278</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367805</v>
+        <v>9.882059701038699</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920537</v>
+        <v>88.00800320656602</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
@@ -3749,7 +3749,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412925</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.9290753658111</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978639</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1388.839655591409</v>
+        <v>448.9207614408816</v>
       </c>
       <c r="C2" t="n">
-        <v>1388.839655591409</v>
+        <v>448.9207614408816</v>
       </c>
       <c r="D2" t="n">
-        <v>1388.839655591409</v>
+        <v>63.47963265754936</v>
       </c>
       <c r="E2" t="n">
-        <v>986.2561307079534</v>
+        <v>63.47963265754936</v>
       </c>
       <c r="F2" t="n">
-        <v>569.3616922379312</v>
+        <v>50.62559822793118</v>
       </c>
       <c r="G2" t="n">
-        <v>156.1989367259343</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>663.4515315628589</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1201.710316572952</v>
+        <v>1450.277176783643</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572952</v>
+        <v>1450.277176783643</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465281</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737751</v>
+        <v>2060.228253521688</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737751</v>
+        <v>2060.228253521688</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737751</v>
+        <v>1836.727651081104</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737751</v>
+        <v>1580.974921515703</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737751</v>
+        <v>1238.868112219222</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737751</v>
+        <v>1238.868112219222</v>
       </c>
       <c r="X2" t="n">
-        <v>1785.330364670808</v>
+        <v>849.4155071522785</v>
       </c>
       <c r="Y2" t="n">
-        <v>1388.839655591409</v>
+        <v>849.4155071522785</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>716.4374237795012</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>565.7831933395934</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>435.6942259610737</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>407.9705203262567</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144824</v>
+        <v>407.9705203262567</v>
       </c>
       <c r="M3" t="n">
-        <v>694.8694266245757</v>
+        <v>921.5731989359444</v>
       </c>
       <c r="N3" t="n">
-        <v>1233.128211634669</v>
+        <v>921.5731989359444</v>
       </c>
       <c r="O3" t="n">
-        <v>1749.64849422565</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737751</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737751</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1689.51230029059</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1466.972298661657</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1236.855052794944</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1047.547975144955</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>868.2337582204625</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.950286206352</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C4" t="n">
-        <v>331.950286206352</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D4" t="n">
-        <v>331.950286206352</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E4" t="n">
-        <v>331.950286206352</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F4" t="n">
-        <v>331.950286206352</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G4" t="n">
-        <v>331.950286206352</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H4" t="n">
-        <v>176.4717351678459</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="U4" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="V4" t="n">
-        <v>555.0623473897086</v>
+        <v>558.9139710421778</v>
       </c>
       <c r="W4" t="n">
-        <v>555.0623473897086</v>
+        <v>275.5835689733553</v>
       </c>
       <c r="X4" t="n">
-        <v>555.0623473897086</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="Y4" t="n">
-        <v>331.950286206352</v>
+        <v>41.50324675633841</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.973020717819</v>
+        <v>1568.762838254916</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.973020717819</v>
+        <v>1175.587336757847</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.973020717819</v>
+        <v>790.1462079745143</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.973020717819</v>
+        <v>387.5626830910587</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477965</v>
+        <v>374.7086486614405</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>430.5470492307185</v>
+        <v>369.7911287380675</v>
       </c>
       <c r="L5" t="n">
-        <v>923.8673409492474</v>
+        <v>863.1114204565963</v>
       </c>
       <c r="M5" t="n">
-        <v>1462.126125959341</v>
+        <v>1376.714099066284</v>
       </c>
       <c r="N5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023273</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964324</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964324</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964324</v>
+        <v>1614.903139478091</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.276500964324</v>
+        <v>1614.903139478091</v>
       </c>
       <c r="W5" t="n">
-        <v>1970.276500964324</v>
+        <v>1614.903139478091</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.276500964324</v>
+        <v>1614.903139478091</v>
       </c>
       <c r="Y5" t="n">
-        <v>1736.467766429216</v>
+        <v>1614.903139478091</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021461</v>
+        <v>707.9891204222765</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622383</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837186</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946063</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777381</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475502</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475502</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>88.23137426403031</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>407.9705203262567</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653886</v>
+        <v>407.9705203262567</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875482</v>
+        <v>921.5731989359444</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875482</v>
+        <v>921.5731989359444</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784302</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917588</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692676001</v>
+        <v>887.3033373467692</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431074</v>
+        <v>707.9891204222765</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>425.4235679611915</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C7" t="n">
-        <v>425.4235679611915</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D7" t="n">
-        <v>425.4235679611915</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E7" t="n">
-        <v>425.4235679611915</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F7" t="n">
-        <v>425.4235679611915</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G7" t="n">
-        <v>257.169514060637</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>101.6909630221309</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>659.5038901782084</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="V7" t="n">
-        <v>659.5038901782084</v>
+        <v>391.5321323606159</v>
       </c>
       <c r="W7" t="n">
-        <v>659.5038901782084</v>
+        <v>391.5321323606159</v>
       </c>
       <c r="X7" t="n">
-        <v>425.4235679611915</v>
+        <v>157.451810143599</v>
       </c>
       <c r="Y7" t="n">
-        <v>425.4235679611915</v>
+        <v>157.451810143599</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1794.3239112715</v>
+        <v>600.8019744073591</v>
       </c>
       <c r="C8" t="n">
-        <v>1401.14840977443</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.707280991098</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
         <v>185.6500870090788</v>
@@ -4802,19 +4802,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780699</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.3239112715</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.3239112715</v>
+        <v>1397.787429198155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1794.3239112715</v>
+        <v>1001.296720118756</v>
       </c>
     </row>
     <row r="9">
@@ -4887,10 +4887,10 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>539.420211517574</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V10" t="n">
-        <v>539.420211517574</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="W10" t="n">
-        <v>444.8659878553807</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7856656383638</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7856656383638</v>
+        <v>224.7860652357804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1651.747936481893</v>
+        <v>1290.796463345248</v>
       </c>
       <c r="C11" t="n">
-        <v>1330.368710131017</v>
+        <v>969.4172369943723</v>
       </c>
       <c r="D11" t="n">
-        <v>1016.723856493878</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="E11" t="n">
-        <v>685.9366067566168</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="F11" t="n">
-        <v>340.8384434327885</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>314.4059029914308</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2921.999930786569</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2921.999930786569</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2622.79717090105</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2305.140840980301</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1980.446407047096</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>802.5350401618138</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>256.9857492462932</v>
+        <v>103.314052015841</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5769064584762</v>
+        <v>103.314052015841</v>
       </c>
       <c r="D13" t="n">
-        <v>158.5769064584762</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>158.5769064584762</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584762</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
         <v>62.11912770411553</v>
@@ -5200,49 +5200,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1467.279816152474</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1303.357039466902</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1089.714522854997</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V13" t="n">
-        <v>895.5314528220151</v>
+        <v>741.8597555915627</v>
       </c>
       <c r="W13" t="n">
-        <v>683.9973258993866</v>
+        <v>530.3256286689342</v>
       </c>
       <c r="X13" t="n">
-        <v>521.7132788285635</v>
+        <v>368.0415815981112</v>
       </c>
       <c r="Y13" t="n">
-        <v>370.3974927914006</v>
+        <v>216.7257955609484</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1565.393856750812</v>
+        <v>1621.58371308251</v>
       </c>
       <c r="C14" t="n">
-        <v>1244.014630399936</v>
+        <v>1300.204486731634</v>
       </c>
       <c r="D14" t="n">
-        <v>930.3697767627984</v>
+        <v>986.5596330944956</v>
       </c>
       <c r="E14" t="n">
-        <v>930.3697767627984</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="F14" t="n">
-        <v>585.27161343897</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G14" t="n">
-        <v>243.905133073167</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2844.489911616724</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.645851055488</v>
+        <v>2574.179377466436</v>
       </c>
       <c r="W14" t="n">
-        <v>2536.44309116997</v>
+        <v>2274.976617580917</v>
       </c>
       <c r="X14" t="n">
-        <v>2218.78676124922</v>
+        <v>2274.976617580917</v>
       </c>
       <c r="Y14" t="n">
-        <v>1894.092327316015</v>
+        <v>1950.282183647712</v>
       </c>
     </row>
     <row r="15">
@@ -5364,10 +5364,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>292.6292134539893</v>
+        <v>160.5279704919324</v>
       </c>
       <c r="C16" t="n">
-        <v>292.6292134539893</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>292.6292134539893</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539893</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131561</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131561</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245439</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915619</v>
+        <v>741.8597555915626</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689335</v>
+        <v>530.3256286689341</v>
       </c>
       <c r="X16" t="n">
-        <v>530.3256286689335</v>
+        <v>368.0415815981111</v>
       </c>
       <c r="Y16" t="n">
-        <v>406.0409569990968</v>
+        <v>273.9397140370398</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599515</v>
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,13 +5592,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M18" t="n">
         <v>1223.947919817482</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,19 +5674,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5832,13 +5832,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,22 +5914,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>806.619390679759</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214671</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>346.9752758473783</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L24" t="n">
-        <v>830.5413617456916</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N24" t="n">
         <v>1458.313011372373</v>
@@ -6154,19 +6154,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,28 +6224,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>755.8323718938493</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6254,7 +6254,7 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>148.425166752431</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>468.1643128146575</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>468.1643128146575</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="M27" t="n">
-        <v>1095.935962441339</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6382,22 +6382,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,19 +6464,19 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>357.2653989400741</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M30" t="n">
-        <v>985.0370485667553</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.815019777314</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904115</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463677</v>
+        <v>904.3560533993068</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057098</v>
+        <v>601.38072581081</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394301</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.131430758833</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765613</v>
+        <v>2844.723727844782</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897135</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076169</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>353.4480882332858</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>353.4480882332858</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>981.219737859967</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1636.997709070526</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="O33" t="n">
-        <v>2153.517991661507</v>
+        <v>2128.267282000274</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965141</v>
+        <v>365.6713676929708</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918677</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237468</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123137</v>
+        <v>226.0316571652533</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546511</v>
+        <v>182.6248332597516</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431939</v>
+        <v>86.73045008374181</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>420.7833219515734</v>
+        <v>425.1699371610697</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898374</v>
+        <v>611.4615154993337</v>
       </c>
       <c r="N34" t="n">
-        <v>895.5376270481166</v>
+        <v>794.6511495305429</v>
       </c>
       <c r="O34" t="n">
-        <v>1163.515486816895</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.664745320543</v>
+        <v>1300.536323498796</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.785962625017</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395536</v>
+        <v>835.7257283273666</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000956</v>
+        <v>666.3144371400696</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124432</v>
+        <v>546.153225804578</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584509</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924234</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6968,19 +6968,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>381.858273766342</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1009.629923393023</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1665.407894603582</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,46 +7099,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296496</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599515</v>
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803429</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,22 +7196,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840155</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7397,13 +7397,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462923</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.6987703123003</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>278.5901810446707</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184705</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567345</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879436</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296516</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918814</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072222</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>416.8577819937665</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>565.7063741961979</v>
       </c>
       <c r="N2" t="n">
         <v>149.1184913377841</v>
@@ -7994,7 +7994,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>345.5083407375666</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837496</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886044</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P3" t="n">
-        <v>279.7797122508401</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,16 +8216,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>387.908521287455</v>
+        <v>328.5514426468141</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>129.6445861289817</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>93.76504805760486</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837496</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>477.1304116531281</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>359.5215849845346</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8535,13 +8535,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>234.9862648617782</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>400.7288157213065</v>
+        <v>575.5973938481089</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9012,13 +9012,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9240,16 +9240,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>133.4455245943154</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9413,7 +9413,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>594.0482827698837</v>
       </c>
       <c r="P20" t="n">
         <v>502.0059847475129</v>
@@ -9480,16 +9480,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>377.3304183063261</v>
+        <v>234.783646787533</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,22 +9951,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>158.2629500655362</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079786</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,16 +10188,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>376.8285690715887</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016892</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10206,7 +10206,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,25 +10425,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>376.3651575480042</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>237.5738335035115</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>168.5060516210921</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,16 +10899,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>486.9652344155852</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -10917,10 +10917,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,22 +11136,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,13 +11373,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>374.1267046741214</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11388,13 +11388,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>154.2228615385799</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>62.02069299075881</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372793</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362806</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177851</v>
+        <v>42.21549450317037</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465762</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442489</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338907</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.685168714561</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901692</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>100.5513131791318</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>69.79576221908162</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372793</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362806</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>167.222472156927</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993879</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177851</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465762</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681703</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.76080322365289</v>
+        <v>56.64177929133039</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1093111.624521702</v>
+        <v>1091306.981680421</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1093111.624521702</v>
+        <v>1091306.981680421</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>985772.1914720231</v>
+        <v>985772.1914720236</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>234431.8315213638</v>
+        <v>234431.8315213637</v>
       </c>
       <c r="C2" t="n">
         <v>234431.8315213637</v>
@@ -26332,19 +26332,19 @@
         <v>234431.8315213638</v>
       </c>
       <c r="I2" t="n">
+        <v>234431.8315213638</v>
+      </c>
+      <c r="J2" t="n">
+        <v>234431.8315213643</v>
+      </c>
+      <c r="K2" t="n">
+        <v>234431.8315213641</v>
+      </c>
+      <c r="L2" t="n">
         <v>234431.8315213639</v>
       </c>
-      <c r="J2" t="n">
-        <v>234431.8315213642</v>
-      </c>
-      <c r="K2" t="n">
-        <v>234431.831521364</v>
-      </c>
-      <c r="L2" t="n">
-        <v>234431.8315213636</v>
-      </c>
       <c r="M2" t="n">
-        <v>234431.8315213637</v>
+        <v>234431.8315213638</v>
       </c>
       <c r="N2" t="n">
         <v>234431.8315213638</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062173</v>
+        <v>22558.42953401365</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728546</v>
+        <v>62456.24177539687</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277107</v>
+        <v>27767.69404277119</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138792</v>
+        <v>237331.8440488216</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138792</v>
+        <v>237331.8440488216</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26445,19 +26445,19 @@
         <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.0885321601</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
-        <v>199269.1699682604</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="N4" t="n">
         <v>199269.1699682603</v>
       </c>
       <c r="O4" t="n">
+        <v>199269.1699682603</v>
+      </c>
+      <c r="P4" t="n">
         <v>199269.1699682602</v>
-      </c>
-      <c r="P4" t="n">
-        <v>199269.1699682603</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="P5" t="n">
         <v>58169.76931551965</v>
-      </c>
-      <c r="P5" t="n">
-        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246881.7305243853</v>
+        <v>-241928.73709633</v>
       </c>
       <c r="C6" t="n">
-        <v>-64676.78223252925</v>
+        <v>-68070.08006227508</v>
       </c>
       <c r="D6" t="n">
-        <v>-72997.62261809854</v>
+        <v>-80733.91184149048</v>
       </c>
       <c r="E6" t="n">
-        <v>-109652.1041988425</v>
+        <v>-109861.8357455322</v>
       </c>
       <c r="F6" t="n">
-        <v>2470.457275201981</v>
+        <v>2260.725728512383</v>
       </c>
       <c r="G6" t="n">
-        <v>-70432.43329909822</v>
+        <v>-70432.43329909811</v>
       </c>
       <c r="H6" t="n">
-        <v>-23007.10776241624</v>
+        <v>-23007.10776241622</v>
       </c>
       <c r="I6" t="n">
-        <v>-23007.1077624161</v>
+        <v>-23007.10776241618</v>
       </c>
       <c r="J6" t="n">
-        <v>-236049.0253597014</v>
+        <v>-229532.7402051278</v>
       </c>
       <c r="K6" t="n">
-        <v>-29246.87616519896</v>
+        <v>-29246.87616519881</v>
       </c>
       <c r="L6" t="n">
-        <v>-84429.46509982043</v>
+        <v>-88478.30231029251</v>
       </c>
       <c r="M6" t="n">
-        <v>-65207.93722203933</v>
+        <v>-66259.63223322734</v>
       </c>
       <c r="N6" t="n">
-        <v>-23007.10776241622</v>
+        <v>-23007.10776241613</v>
       </c>
       <c r="O6" t="n">
-        <v>-50774.80180518715</v>
+        <v>-50774.80180518734</v>
       </c>
       <c r="P6" t="n">
-        <v>-23007.1077624163</v>
+        <v>-23007.10776241609</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="P2" t="n">
         <v>130.3599693155843</v>
-      </c>
-      <c r="P2" t="n">
-        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.79058445423</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.344353009521</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660682</v>
+        <v>78.07030221924609</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551372</v>
+        <v>17.58004954287428</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346383</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977372</v>
+        <v>659.3622249971642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407208</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.79058445423</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>209.2659753713068</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>22.82824112505318</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626729</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>158.6421914202041</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>30.19165356609196</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27594,16 +27594,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>206.573518907253</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>350.8109000433393</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>161.055154798848</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.763230674617404</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270094</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>68.56686075100025</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27786,16 +27786,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>104.2246179903498</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>140.3634380172882</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>278.1351383628134</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>7.657574321493826</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>186.8884166225628</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28746,22 +28746,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="P19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.636002634528666</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28986,13 +28986,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29226,22 +29226,22 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599578</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431664</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29545,13 +29545,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
+        <v>30.27223765901215</v>
+      </c>
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="O29" t="n">
-        <v>30.27223765901266</v>
-      </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,16 +29776,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O32" t="n">
-        <v>48.65992738833501</v>
+        <v>43.49509683159744</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.97643844045636</v>
+        <v>76.79385455031043</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,37 +30180,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.636002634527898</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733193</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,40 +30378,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082768</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,34 +30615,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668914</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2979821082787</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>263.6096122632748</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344378</v>
+        <v>415.9813225984706</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>255.9114054042333</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344378</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344378</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P3" t="n">
-        <v>192.6963474315255</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,16 +34936,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>244.8501181082176</v>
+        <v>185.4930394675767</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344378</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>47.20012879564839</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>3.704701200686629</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344378</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,22 +35170,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>327.4053600554008</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35255,13 +35255,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>144.92591800486</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>310.6684688643883</v>
+        <v>485.5370469911907</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257281</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257281</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565487</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36054,10 +36054,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36282,13 +36282,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7334829729927</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36522,22 +36522,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>449.2589679877754</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>75.81849273220281</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>396.9048875586666</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963363</v>
+        <v>259.7767692963366</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,13 +36841,13 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039233</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>286.7682222146705</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>73.9360531523773</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36926,7 +36926,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37072,16 +37072,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682817</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511622</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341213</v>
+        <v>487.9795421773837</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>286.7682222146709</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37230,22 +37230,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>278.5654145947301</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>277.128169309789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>233.8669559106683</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.43320245060885</v>
+        <v>80.25061856046291</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>75.81849273220321</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,13 +37476,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716068</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>396.904887558667</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37637,10 +37637,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133878</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634527946</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634530071</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37947,7 +37947,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>284.5297693407881</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38108,13 +38108,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184312</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
